--- a/BitMex_Manager.xlsx
+++ b/BitMex_Manager.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="210" yWindow="-150" windowWidth="18195" windowHeight="12330"/>
+    <workbookView xWindow="-2430" yWindow="720" windowWidth="18195" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>ETH</t>
   </si>
@@ -76,6 +76,24 @@
   </si>
   <si>
     <t>Need historical funding rates</t>
+  </si>
+  <si>
+    <t>3)</t>
+  </si>
+  <si>
+    <t>Training</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>For every line, run a model for sells only using next executed prices</t>
+  </si>
+  <si>
+    <t>For every line, run a model for buys only using next executed prices. If long ends in a gain, label it a 1. If not label it a 0</t>
+  </si>
+  <si>
+    <t>For each line, run both models. Make sure the models end up being regression. If the models disagree, go with the one that predicts a higher PnL</t>
   </si>
 </sst>
 </file>
@@ -421,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -432,7 +450,7 @@
     <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -443,7 +461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -454,7 +472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -466,7 +484,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -477,7 +495,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -488,7 +506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -499,7 +517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -511,7 +529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -523,7 +541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J11" t="s">
         <v>16</v>
       </c>
@@ -531,7 +549,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J12" t="s">
         <v>18</v>
       </c>
@@ -539,37 +557,65 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="L17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E26" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E28" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E29" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E30" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
         <v>13</v>
       </c>
